--- a/doc/backend/db/TRN-MiniBlog_DatabaseDesign_LeDong.xlsx
+++ b/doc/backend/db/TRN-MiniBlog_DatabaseDesign_LeDong.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14080" tabRatio="818" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14080" tabRatio="818" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
     <sheet name="Update History" sheetId="12" r:id="rId2"/>
     <sheet name="Table List" sheetId="4" r:id="rId3"/>
-    <sheet name="user" sheetId="5" r:id="rId4"/>
+    <sheet name="Account" sheetId="5" r:id="rId4"/>
     <sheet name="edition" sheetId="36" state="hidden" r:id="rId5"/>
     <sheet name="x_edition_version" sheetId="37" state="hidden" r:id="rId6"/>
     <sheet name="ranking(deleted)" sheetId="20" state="hidden" r:id="rId7"/>
+    <sheet name="Posts" sheetId="38" r:id="rId8"/>
+    <sheet name="Comments" sheetId="39" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="⑫画面" localSheetId="4">#REF!</definedName>
@@ -90,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="176">
   <si>
     <t>No</t>
   </si>
@@ -257,9 +259,6 @@
     <t>VARCHAR(255)</t>
   </si>
   <si>
-    <t>VARCHAR(40)</t>
-  </si>
-  <si>
     <t>ranking</t>
   </si>
   <si>
@@ -390,15 +389,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>create_dt</t>
-  </si>
-  <si>
-    <t>update_dt</t>
-  </si>
-  <si>
-    <t>Current date time as default value.</t>
   </si>
   <si>
     <t>Init version</t>
@@ -417,46 +407,13 @@
     <t>user</t>
   </si>
   <si>
-    <t>10/10/2014</t>
-  </si>
-  <si>
-    <t>User Info</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>Just allow a-z, 0-9.</t>
   </si>
   <si>
-    <t>Sample data:</t>
-  </si>
-  <si>
-    <t>vutm</t>
-  </si>
-  <si>
-    <t>b29f1055992addafd37270e601b5ff44</t>
-  </si>
-  <si>
-    <t>boitv</t>
-  </si>
-  <si>
-    <t>d9e9c530659814acd65c284e1895b384</t>
-  </si>
-  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>System ID</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>last_login_dt</t>
   </si>
   <si>
     <t>0: Inactive, 1: Active</t>
@@ -473,24 +430,200 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>mini_blog</t>
+    <t>19/1/2015</t>
+  </si>
+  <si>
+    <t>Le Phuong Dong</t>
+  </si>
+  <si>
+    <t>miniblog</t>
+  </si>
+  <si>
+    <t>Account Info</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Mini Blog</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>…</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>..</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="2"/>
+    <t>Posts Info</t>
+  </si>
+  <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>Post ID</t>
+  </si>
+  <si>
+    <t>Post Title</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>Post Description</t>
+  </si>
+  <si>
+    <t>0: show post; 1: hide post</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>fk_posts_account1_idx</t>
+  </si>
+  <si>
+    <t>Comments Info</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Comment ID</t>
+  </si>
+  <si>
+    <t>Comment Title</t>
+  </si>
+  <si>
+    <t>Comment Description</t>
+  </si>
+  <si>
+    <t>Created Date</t>
+  </si>
+  <si>
+    <t>0: show comment; 1: hide comment</t>
+  </si>
+  <si>
+    <t>fk_comments_posts_idx</t>
+  </si>
+  <si>
+    <t>19/01/2014</t>
+  </si>
+  <si>
+    <t>id_acc</t>
+  </si>
+  <si>
+    <t>acc_username</t>
+  </si>
+  <si>
+    <t>acc_password</t>
+  </si>
+  <si>
+    <t>acc_firstname</t>
+  </si>
+  <si>
+    <t>acc_lastname</t>
+  </si>
+  <si>
+    <t>acc_image</t>
+  </si>
+  <si>
+    <t>acc_gender</t>
+  </si>
+  <si>
+    <t>0:user, 1 admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>acc_email</t>
+  </si>
+  <si>
+    <t>acc_birthday</t>
+  </si>
+  <si>
+    <t>acc_status</t>
+  </si>
+  <si>
+    <t>acc_role</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>Modified date</t>
+  </si>
+  <si>
+    <t>ID Acc</t>
+  </si>
+  <si>
+    <t>id_posts</t>
+  </si>
+  <si>
+    <t>posts_title</t>
+  </si>
+  <si>
+    <t>posts_description</t>
+  </si>
+  <si>
+    <t>posts_create_date</t>
+  </si>
+  <si>
+    <t>posts_modidied_date</t>
+  </si>
+  <si>
+    <t>posts_status</t>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
+  </si>
+  <si>
+    <t>id_comments</t>
+  </si>
+  <si>
+    <t>comments_title</t>
+  </si>
+  <si>
+    <t>comments_description</t>
+  </si>
+  <si>
+    <t>comments_create_date</t>
+  </si>
+  <si>
+    <t>comments_modified_date</t>
+  </si>
+  <si>
+    <t>comments_status</t>
+  </si>
+  <si>
+    <t>fk_comments_account1_idx</t>
   </si>
 </sst>
 </file>
@@ -498,14 +631,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -514,14 +647,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -535,7 +668,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -550,7 +683,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -611,7 +744,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -676,6 +809,40 @@
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -703,7 +870,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -1541,8 +1708,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="443">
+  <cellStyleXfs count="447">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2869,8 +3095,20 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2893,7 +3131,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3132,7 +3370,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3140,7 +3378,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3210,12 +3448,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3236,40 +3468,37 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3277,12 +3506,6 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3319,25 +3542,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3352,14 +3575,290 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="443">
+  <cellStyles count="447">
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
@@ -3795,6 +4294,10 @@
     <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ハイパーリンク 2" xfId="4"/>
@@ -5048,29 +5551,29 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="137"/>
-      <c r="P13" s="137"/>
-      <c r="Q13" s="137"/>
-      <c r="R13" s="137"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="137"/>
-      <c r="U13" s="137"/>
-      <c r="V13" s="137"/>
-      <c r="W13" s="137"/>
-      <c r="X13" s="137"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="137"/>
-      <c r="AA13" s="137"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="137"/>
-      <c r="AD13" s="137"/>
-      <c r="AE13" s="137"/>
-      <c r="AF13" s="137"/>
-      <c r="AG13" s="137"/>
-      <c r="AH13" s="137"/>
-      <c r="AI13" s="137"/>
-      <c r="AJ13" s="137"/>
-      <c r="AK13" s="137"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="134"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="134"/>
+      <c r="Z13" s="134"/>
+      <c r="AA13" s="134"/>
+      <c r="AB13" s="134"/>
+      <c r="AC13" s="134"/>
+      <c r="AD13" s="134"/>
+      <c r="AE13" s="134"/>
+      <c r="AF13" s="134"/>
+      <c r="AG13" s="134"/>
+      <c r="AH13" s="134"/>
+      <c r="AI13" s="134"/>
+      <c r="AJ13" s="134"/>
+      <c r="AK13" s="134"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -5102,29 +5605,29 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="137"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="137"/>
-      <c r="V14" s="137"/>
-      <c r="W14" s="137"/>
-      <c r="X14" s="137"/>
-      <c r="Y14" s="137"/>
-      <c r="Z14" s="137"/>
-      <c r="AA14" s="137"/>
-      <c r="AB14" s="137"/>
-      <c r="AC14" s="137"/>
-      <c r="AD14" s="137"/>
-      <c r="AE14" s="137"/>
-      <c r="AF14" s="137"/>
-      <c r="AG14" s="137"/>
-      <c r="AH14" s="137"/>
-      <c r="AI14" s="137"/>
-      <c r="AJ14" s="137"/>
-      <c r="AK14" s="137"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="134"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="134"/>
+      <c r="T14" s="134"/>
+      <c r="U14" s="134"/>
+      <c r="V14" s="134"/>
+      <c r="W14" s="134"/>
+      <c r="X14" s="134"/>
+      <c r="Y14" s="134"/>
+      <c r="Z14" s="134"/>
+      <c r="AA14" s="134"/>
+      <c r="AB14" s="134"/>
+      <c r="AC14" s="134"/>
+      <c r="AD14" s="134"/>
+      <c r="AE14" s="134"/>
+      <c r="AF14" s="134"/>
+      <c r="AG14" s="134"/>
+      <c r="AH14" s="134"/>
+      <c r="AI14" s="134"/>
+      <c r="AJ14" s="134"/>
+      <c r="AK14" s="134"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
@@ -5152,43 +5655,43 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="138" t="s">
-        <v>124</v>
-      </c>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="138"/>
-      <c r="S15" s="138"/>
-      <c r="T15" s="138"/>
-      <c r="U15" s="138"/>
-      <c r="V15" s="138"/>
-      <c r="W15" s="138"/>
-      <c r="X15" s="138"/>
-      <c r="Y15" s="138"/>
-      <c r="Z15" s="138"/>
-      <c r="AA15" s="138"/>
-      <c r="AB15" s="138"/>
-      <c r="AC15" s="138"/>
-      <c r="AD15" s="138"/>
-      <c r="AE15" s="138"/>
-      <c r="AF15" s="138"/>
-      <c r="AG15" s="138"/>
-      <c r="AH15" s="138"/>
-      <c r="AI15" s="138"/>
-      <c r="AJ15" s="138"/>
-      <c r="AK15" s="138"/>
-      <c r="AL15" s="138"/>
-      <c r="AM15" s="138"/>
-      <c r="AN15" s="138"/>
-      <c r="AO15" s="138"/>
-      <c r="AP15" s="138"/>
-      <c r="AQ15" s="138"/>
-      <c r="AR15" s="138"/>
-      <c r="AS15" s="138"/>
+      <c r="K15" s="135" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="135"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="135"/>
+      <c r="AE15" s="135"/>
+      <c r="AF15" s="135"/>
+      <c r="AG15" s="135"/>
+      <c r="AH15" s="135"/>
+      <c r="AI15" s="135"/>
+      <c r="AJ15" s="135"/>
+      <c r="AK15" s="135"/>
+      <c r="AL15" s="135"/>
+      <c r="AM15" s="135"/>
+      <c r="AN15" s="135"/>
+      <c r="AO15" s="135"/>
+      <c r="AP15" s="135"/>
+      <c r="AQ15" s="135"/>
+      <c r="AR15" s="135"/>
+      <c r="AS15" s="135"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -5208,41 +5711,41 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="138"/>
-      <c r="Q16" s="138"/>
-      <c r="R16" s="138"/>
-      <c r="S16" s="138"/>
-      <c r="T16" s="138"/>
-      <c r="U16" s="138"/>
-      <c r="V16" s="138"/>
-      <c r="W16" s="138"/>
-      <c r="X16" s="138"/>
-      <c r="Y16" s="138"/>
-      <c r="Z16" s="138"/>
-      <c r="AA16" s="138"/>
-      <c r="AB16" s="138"/>
-      <c r="AC16" s="138"/>
-      <c r="AD16" s="138"/>
-      <c r="AE16" s="138"/>
-      <c r="AF16" s="138"/>
-      <c r="AG16" s="138"/>
-      <c r="AH16" s="138"/>
-      <c r="AI16" s="138"/>
-      <c r="AJ16" s="138"/>
-      <c r="AK16" s="138"/>
-      <c r="AL16" s="138"/>
-      <c r="AM16" s="138"/>
-      <c r="AN16" s="138"/>
-      <c r="AO16" s="138"/>
-      <c r="AP16" s="138"/>
-      <c r="AQ16" s="138"/>
-      <c r="AR16" s="138"/>
-      <c r="AS16" s="138"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="135"/>
+      <c r="AC16" s="135"/>
+      <c r="AD16" s="135"/>
+      <c r="AE16" s="135"/>
+      <c r="AF16" s="135"/>
+      <c r="AG16" s="135"/>
+      <c r="AH16" s="135"/>
+      <c r="AI16" s="135"/>
+      <c r="AJ16" s="135"/>
+      <c r="AK16" s="135"/>
+      <c r="AL16" s="135"/>
+      <c r="AM16" s="135"/>
+      <c r="AN16" s="135"/>
+      <c r="AO16" s="135"/>
+      <c r="AP16" s="135"/>
+      <c r="AQ16" s="135"/>
+      <c r="AR16" s="135"/>
+      <c r="AS16" s="135"/>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
@@ -5831,14 +6334,14 @@
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="7"/>
-      <c r="AN27" s="139">
+      <c r="AN27" s="136">
         <v>41922</v>
       </c>
-      <c r="AO27" s="139"/>
-      <c r="AP27" s="139"/>
-      <c r="AQ27" s="139"/>
-      <c r="AR27" s="139"/>
-      <c r="AS27" s="139"/>
+      <c r="AO27" s="136"/>
+      <c r="AP27" s="136"/>
+      <c r="AQ27" s="136"/>
+      <c r="AR27" s="136"/>
+      <c r="AS27" s="136"/>
       <c r="AT27" s="12"/>
       <c r="AU27" s="12"/>
       <c r="AV27" s="12"/>
@@ -6341,11 +6844,11 @@
         <v>41922</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D3" s="94"/>
       <c r="E3" s="95" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F3" s="96"/>
     </row>
@@ -6597,11 +7100,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" thickBot="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
     </row>
     <row r="2" spans="1:3" ht="12" thickBot="1">
       <c r="A2" s="118" t="s">
@@ -6619,10 +7122,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="122" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="130" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="C3" s="128" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6852,10 +7355,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -6876,120 +7379,119 @@
     <col min="19" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12" thickBot="1">
+    <row r="1" spans="1:8" ht="12" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13">
+    <row r="2" spans="1:8" ht="13">
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="142"/>
+      <c r="C2" s="159" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="164"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="141"/>
-      <c r="G2" s="145"/>
-    </row>
-    <row r="3" spans="1:19" ht="13">
+      <c r="F2" s="159" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="160"/>
+    </row>
+    <row r="3" spans="1:8" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="165"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="146" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="147"/>
-    </row>
-    <row r="4" spans="1:19" ht="13">
+      <c r="F3" s="161" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="162"/>
+    </row>
+    <row r="4" spans="1:8" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="143" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="144"/>
+      <c r="C4" s="163" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="165"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="147"/>
-    </row>
-    <row r="5" spans="1:19" ht="13">
+      <c r="F4" s="163"/>
+      <c r="G4" s="162"/>
+    </row>
+    <row r="5" spans="1:8" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="143" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="144"/>
+      <c r="C5" s="163" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="165"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="147"/>
-    </row>
-    <row r="6" spans="1:19" ht="13">
+      <c r="F5" s="163"/>
+      <c r="G5" s="162"/>
+    </row>
+    <row r="6" spans="1:8" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="143" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="144"/>
+      <c r="C6" s="163" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="165"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="147"/>
-    </row>
-    <row r="7" spans="1:19" ht="13">
-      <c r="B7" s="152" t="s">
+      <c r="F6" s="163"/>
+      <c r="G6" s="162"/>
+    </row>
+    <row r="7" spans="1:8" ht="13">
+      <c r="B7" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="154"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="B9" s="158"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
-    </row>
-    <row r="10" spans="1:19" ht="12" thickBot="1">
-      <c r="B10" s="159"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
-    </row>
-    <row r="12" spans="1:19" ht="12" thickBot="1">
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="149"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="150"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="152"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="153"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="152"/>
+    </row>
+    <row r="10" spans="1:8" ht="12" thickBot="1">
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="156"/>
+    </row>
+    <row r="12" spans="1:8" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="30" t="s">
         <v>0</v>
       </c>
@@ -7011,47 +7513,16 @@
       <c r="G13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="J13" s="128" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="N13" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="O13" s="128" t="s">
-        <v>129</v>
-      </c>
-      <c r="P13" s="128" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q13" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="R13" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="S13" s="128" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="17">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="69">
         <v>1</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>53</v>
@@ -7064,99 +7535,47 @@
         <v>50</v>
       </c>
       <c r="H14" s="87"/>
-      <c r="I14" s="13">
-        <v>1</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="N14" s="136" t="s">
-        <v>130</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="P14" s="127">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="Q14" s="127">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="R14" s="127">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="S14" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="17">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="59">
         <f>A14+1</f>
         <v>2</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="E15" s="66" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="F15" s="67"/>
       <c r="G15" s="107" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H15" s="87"/>
-      <c r="I15" s="13">
-        <v>2</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="N15" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="P15" s="127">
-        <v>41922.46875</v>
-      </c>
-      <c r="Q15" s="127">
-        <v>41922.46875</v>
-      </c>
-      <c r="R15" s="127">
-        <v>41922.46875</v>
-      </c>
-      <c r="S15" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="59">
         <f t="shared" ref="A16:A24" si="0">A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
+      <c r="B16" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F16" s="67"/>
       <c r="G16" s="117"/>
       <c r="H16" s="87"/>
@@ -7166,10 +7585,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
+      <c r="B17" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F17" s="67"/>
       <c r="G17" s="117"/>
     </row>
@@ -7178,10 +7605,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="66"/>
+      <c r="B18" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="127" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F18" s="67"/>
       <c r="G18" s="106"/>
     </row>
@@ -7190,10 +7625,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="66"/>
+      <c r="B19" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="127" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F19" s="67"/>
       <c r="G19" s="106"/>
     </row>
@@ -7202,10 +7645,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="66"/>
+      <c r="B20" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="127" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F20" s="67"/>
       <c r="G20" s="106"/>
     </row>
@@ -7214,10 +7665,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
+      <c r="B21" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F21" s="67"/>
       <c r="G21" s="106"/>
     </row>
@@ -7227,21 +7686,19 @@
         <v>9</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="E22" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="67"/>
-      <c r="G22" s="106" t="s">
-        <v>102</v>
-      </c>
+      <c r="G22" s="106"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="59">
@@ -7249,42 +7706,44 @@
         <v>10</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="E23" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="67"/>
-      <c r="G23" s="106"/>
+      <c r="G23" s="106" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="12" thickBot="1">
       <c r="A24" s="70">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="131" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="132" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="133" t="s">
+      <c r="B24" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="135" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="134" t="s">
-        <v>122</v>
+      <c r="F24" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="132" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12" thickBot="1">
@@ -7299,10 +7758,10 @@
       <c r="B27" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="148" t="s">
+      <c r="C27" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="149"/>
+      <c r="D27" s="146"/>
       <c r="E27" s="34" t="s">
         <v>33</v>
       </c>
@@ -7320,10 +7779,10 @@
       <c r="B28" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="162" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="163"/>
+      <c r="C28" s="157" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="158"/>
       <c r="E28" s="46" t="s">
         <v>3</v>
       </c>
@@ -7337,8 +7796,8 @@
         <v>2</v>
       </c>
       <c r="B29" s="51"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="168"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="144"/>
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
       <c r="G29" s="53"/>
@@ -7348,8 +7807,8 @@
         <v>3</v>
       </c>
       <c r="B30" s="54"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="166"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="142"/>
       <c r="E30" s="58"/>
       <c r="F30" s="58"/>
       <c r="G30" s="55"/>
@@ -7366,14 +7825,14 @@
       <c r="B33" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="150" t="s">
+      <c r="C33" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="151"/>
-      <c r="E33" s="150" t="s">
+      <c r="D33" s="139"/>
+      <c r="E33" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="164"/>
+      <c r="F33" s="140"/>
       <c r="G33" s="38" t="s">
         <v>38</v>
       </c>
@@ -7390,40 +7849,40 @@
       <c r="B36" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="150" t="s">
+      <c r="C36" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="151"/>
-      <c r="E36" s="150" t="s">
+      <c r="D36" s="139"/>
+      <c r="E36" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="164"/>
+      <c r="F36" s="140"/>
       <c r="G36" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7471,103 +7930,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="142"/>
+      <c r="D2" s="164"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="141" t="s">
+      <c r="F2" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="145"/>
+      <c r="G2" s="160"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="165"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="147"/>
+      <c r="G3" s="162"/>
     </row>
     <row r="4" spans="1:11" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="144"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="147"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="162"/>
     </row>
     <row r="5" spans="1:11" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="143" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="144"/>
+      <c r="C5" s="163" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="165"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="147"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="162"/>
     </row>
     <row r="6" spans="1:11" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="143" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="144"/>
+      <c r="C6" s="163" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="165"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="147"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="162"/>
     </row>
     <row r="7" spans="1:11" ht="13">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="154"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="149"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="152"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="158"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="152"/>
     </row>
     <row r="10" spans="1:11" ht="12" thickBot="1">
-      <c r="B10" s="159"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="156"/>
     </row>
     <row r="12" spans="1:11" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -7602,10 +8061,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="60" t="s">
         <v>83</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>84</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>53</v>
@@ -7625,20 +8084,20 @@
         <v>2</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>86</v>
-      </c>
       <c r="D15" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="44" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" s="76"/>
       <c r="K15" s="79"/>
@@ -7649,10 +8108,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>54</v>
@@ -7671,10 +8130,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="48" t="s">
         <v>78</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>79</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>53</v>
@@ -7686,7 +8145,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K17" s="79"/>
     </row>
@@ -7696,20 +8155,20 @@
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="84" t="s">
-        <v>93</v>
-      </c>
       <c r="D18" s="80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="81" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="85"/>
       <c r="G18" s="86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K18" s="79"/>
     </row>
@@ -7765,7 +8224,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="45" t="s">
         <v>3</v>
@@ -7789,10 +8248,10 @@
       <c r="B24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="148" t="s">
+      <c r="C24" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="149"/>
+      <c r="D24" s="146"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -7810,10 +8269,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="162" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="163"/>
+      <c r="C25" s="157" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="158"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -7827,10 +8286,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="173" t="s">
+      <c r="C26" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="174"/>
+      <c r="D26" s="169"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58" t="s">
         <v>3</v>
@@ -7849,14 +8308,14 @@
       <c r="B29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="150" t="s">
+      <c r="C29" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="151"/>
-      <c r="E29" s="150" t="s">
+      <c r="D29" s="139"/>
+      <c r="E29" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="164"/>
+      <c r="F29" s="140"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -7873,14 +8332,14 @@
       <c r="B32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="150" t="s">
+      <c r="C32" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="151"/>
-      <c r="E32" s="150" t="s">
+      <c r="D32" s="139"/>
+      <c r="E32" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="164"/>
+      <c r="F32" s="140"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
@@ -7890,29 +8349,20 @@
         <v>1</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="171" t="s">
+      <c r="C33" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="172"/>
-      <c r="E33" s="173" t="s">
+      <c r="D33" s="167"/>
+      <c r="E33" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="174"/>
+      <c r="F33" s="169"/>
       <c r="G33" s="28" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -7925,6 +8375,15 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7972,105 +8431,105 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="142"/>
+      <c r="D2" s="164"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="141" t="s">
+      <c r="F2" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="145"/>
+      <c r="G2" s="160"/>
     </row>
     <row r="3" spans="1:7" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="165"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="147"/>
+      <c r="G3" s="162"/>
     </row>
     <row r="4" spans="1:7" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="144"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="147"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="162"/>
     </row>
     <row r="5" spans="1:7" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="144"/>
+      <c r="C5" s="163" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="165"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="147"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="162"/>
     </row>
     <row r="6" spans="1:7" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="143" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="144"/>
+      <c r="C6" s="163" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="165"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="147"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="162"/>
     </row>
     <row r="7" spans="1:7" ht="13">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="154"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="149"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="155" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
+      <c r="B8" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="152"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="158"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="152"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1">
-      <c r="B10" s="159"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="156"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -8105,10 +8564,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="60" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>62</v>
       </c>
       <c r="D14" s="71" t="s">
         <v>53</v>
@@ -8127,10 +8586,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="61" t="s">
         <v>83</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>84</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>53</v>
@@ -8147,10 +8606,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="62" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>77</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>53</v>
@@ -8175,10 +8634,10 @@
       <c r="B19" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="149"/>
+      <c r="D19" s="146"/>
       <c r="E19" s="34" t="s">
         <v>33</v>
       </c>
@@ -8196,10 +8655,10 @@
       <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="162" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="163"/>
+      <c r="C20" s="157" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="158"/>
       <c r="E20" s="46" t="s">
         <v>3</v>
       </c>
@@ -8213,10 +8672,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="171" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="172"/>
+      <c r="C21" s="166" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="167"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45" t="s">
         <v>3</v>
@@ -8235,14 +8694,14 @@
       <c r="B24" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="150" t="s">
+      <c r="C24" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="151"/>
-      <c r="E24" s="150" t="s">
+      <c r="D24" s="139"/>
+      <c r="E24" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="164"/>
+      <c r="F24" s="140"/>
       <c r="G24" s="38" t="s">
         <v>38</v>
       </c>
@@ -8259,14 +8718,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="151"/>
-      <c r="E27" s="150" t="s">
+      <c r="D27" s="139"/>
+      <c r="E27" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="164"/>
+      <c r="F27" s="140"/>
       <c r="G27" s="38" t="s">
         <v>39</v>
       </c>
@@ -8276,23 +8735,14 @@
         <v>1</v>
       </c>
       <c r="B28" s="26"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="174"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="169"/>
       <c r="G28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -8305,6 +8755,15 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8352,103 +8811,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="142"/>
+      <c r="D2" s="164"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="175" t="s">
+      <c r="F2" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="176"/>
+      <c r="G2" s="173"/>
     </row>
     <row r="3" spans="1:14" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="165"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="146" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="147"/>
+      <c r="F3" s="161" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="162"/>
     </row>
     <row r="4" spans="1:14" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="144"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="147"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="162"/>
     </row>
     <row r="5" spans="1:14" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="143" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="144"/>
+      <c r="C5" s="163" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="165"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="147"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="162"/>
     </row>
     <row r="6" spans="1:14" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="143" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="144"/>
+      <c r="C6" s="163" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="165"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="147"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="162"/>
     </row>
     <row r="7" spans="1:14" ht="13">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="154"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="149"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="152"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="158"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="152"/>
     </row>
     <row r="10" spans="1:14" ht="12" thickBot="1">
-      <c r="B10" s="159"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="156"/>
     </row>
     <row r="11" spans="1:14">
       <c r="H11" s="87"/>
@@ -8503,10 +8962,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>53</v>
@@ -8532,10 +8991,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="74" t="s">
         <v>53</v>
@@ -8559,13 +9018,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="65" t="s">
-        <v>68</v>
-      </c>
       <c r="D16" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="44" t="s">
         <v>3</v>
@@ -8586,13 +9045,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>65</v>
-      </c>
       <c r="D17" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>3</v>
@@ -8601,7 +9060,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="87"/>
       <c r="I17" s="87"/>
@@ -8617,7 +9076,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="62" t="s">
         <v>52</v>
@@ -8664,10 +9123,10 @@
       <c r="B21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="148" t="s">
+      <c r="C21" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="149"/>
+      <c r="D21" s="146"/>
       <c r="E21" s="34" t="s">
         <v>33</v>
       </c>
@@ -8691,10 +9150,10 @@
       <c r="B22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="162" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="163"/>
+      <c r="C22" s="157" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="158"/>
       <c r="E22" s="46" t="s">
         <v>3</v>
       </c>
@@ -8714,10 +9173,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="51"/>
-      <c r="C23" s="167" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="168"/>
+      <c r="C23" s="143" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="144"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52" t="s">
         <v>3</v>
@@ -8735,10 +9194,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="171" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="172"/>
+      <c r="C24" s="166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="167"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45" t="s">
         <v>3</v>
@@ -8777,14 +9236,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="151"/>
-      <c r="E27" s="150" t="s">
+      <c r="D27" s="139"/>
+      <c r="E27" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="164"/>
+      <c r="F27" s="140"/>
       <c r="G27" s="38" t="s">
         <v>38</v>
       </c>
@@ -8821,14 +9280,14 @@
       <c r="B30" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="150" t="s">
+      <c r="C30" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="151"/>
-      <c r="E30" s="150" t="s">
+      <c r="D30" s="139"/>
+      <c r="E30" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="164"/>
+      <c r="F30" s="140"/>
       <c r="G30" s="38" t="s">
         <v>39</v>
       </c>
@@ -8844,16 +9303,16 @@
         <v>1</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="162" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="163"/>
-      <c r="E31" s="167" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="168"/>
+      <c r="C31" s="157" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="158"/>
+      <c r="E31" s="143" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="144"/>
       <c r="G31" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H31" s="87"/>
       <c r="I31" s="87"/>
@@ -8867,14 +9326,14 @@
         <v>2</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="C32" s="169" t="s">
+      <c r="C32" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="170"/>
-      <c r="E32" s="173" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="174"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="168" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="169"/>
       <c r="G32" s="55" t="s">
         <v>52</v>
       </c>
@@ -8927,6 +9386,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C31:D31"/>
@@ -8943,14 +9410,6 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8965,4 +9424,1121 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="13"/>
+      <c r="B2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="159" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="164"/>
+      <c r="E2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="159" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="160"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="13"/>
+      <c r="B3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="163"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="161" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="162"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="13"/>
+      <c r="B4" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="163" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="165"/>
+      <c r="E4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="163"/>
+      <c r="G4" s="162"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="13"/>
+      <c r="B5" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="163" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="165"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="162"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13"/>
+      <c r="B6" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="163" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="165"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="162"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13"/>
+      <c r="B7" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="149"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="152"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="152"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="156"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="A16" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="69">
+        <v>1</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="59">
+        <f>A17+1</f>
+        <v>2</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="67"/>
+      <c r="G18" s="107"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="59">
+        <f t="shared" ref="A19:A22" si="0">A18+1</f>
+        <v>3</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="67"/>
+      <c r="G19" s="117"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="59">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="67"/>
+      <c r="G20" s="117"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="127" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="67"/>
+      <c r="G21" s="106"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="59">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="127" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="174" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" customHeight="1" thickBot="1">
+      <c r="A23" s="70">
+        <v>7</v>
+      </c>
+      <c r="B23" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="130" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="130" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="131" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="133"/>
+      <c r="G23" s="132"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="145" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="146"/>
+      <c r="E26" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="14">
+        <v>1</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="157" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="158"/>
+      <c r="E27" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="57">
+        <v>2</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="143"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="57"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1">
+      <c r="A30" s="56"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="13"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1">
+      <c r="A33" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="138" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="139"/>
+      <c r="E33" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="140"/>
+      <c r="G33" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1">
+      <c r="A34" s="177">
+        <v>1</v>
+      </c>
+      <c r="B34" s="178" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="179" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="179"/>
+      <c r="E34" s="179" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="179"/>
+      <c r="G34" s="180" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1">
+      <c r="A36" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="138" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="139"/>
+      <c r="E36" s="138" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="140"/>
+      <c r="G36" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="13"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1">
+      <c r="A1" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="183"/>
+      <c r="B2" s="184" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="185" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="186"/>
+      <c r="E2" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="185" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="188"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="183"/>
+      <c r="B3" s="189" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="190"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="193" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="194"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="183"/>
+      <c r="B4" s="189" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="190" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="191"/>
+      <c r="E4" s="192" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="190"/>
+      <c r="G4" s="194"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="183"/>
+      <c r="B5" s="189" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="190" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="191"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="194"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="183"/>
+      <c r="B6" s="189" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="190" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="191"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="194"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="183"/>
+      <c r="B7" s="196" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="197"/>
+      <c r="D7" s="197"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="198"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="183"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="201"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="183"/>
+      <c r="B9" s="202"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="201"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1">
+      <c r="A10" s="183"/>
+      <c r="B10" s="203"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="205"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="183"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1">
+      <c r="A12" s="181" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="206" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="207" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="207" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="208" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="207" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="209" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="210">
+        <v>1</v>
+      </c>
+      <c r="B14" s="211" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="212" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="213" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="214" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="215"/>
+      <c r="G14" s="216" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="217">
+        <f>A14+1</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="211" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="213" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="213" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="214" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="215"/>
+      <c r="G15" s="218"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="217">
+        <f t="shared" ref="A16:A21" si="0">A15+1</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="211" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="213" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="213" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="214" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="215"/>
+      <c r="G16" s="219"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="217">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="211" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="213" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="213" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="214"/>
+      <c r="F17" s="215"/>
+      <c r="G17" s="219"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="217">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B18" s="211" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="213" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="220" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="214"/>
+      <c r="F18" s="215"/>
+      <c r="G18" s="216"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="217">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B19" s="211" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="221" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="213" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="214"/>
+      <c r="F19" s="222" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="216" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="217">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="211" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="213" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="220" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="214"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="216"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1">
+      <c r="A21" s="223">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="224" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="225" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="225" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="226"/>
+      <c r="F21" s="227"/>
+      <c r="G21" s="228"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="183"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="182"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1">
+      <c r="A23" s="181" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="182"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="182"/>
+    </row>
+    <row r="24" spans="1:7" ht="24">
+      <c r="A24" s="229" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="230" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="231" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="232"/>
+      <c r="E24" s="230" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="230" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="233" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="234">
+        <v>1</v>
+      </c>
+      <c r="B25" s="235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="236" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="237"/>
+      <c r="E25" s="238" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="238" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="239"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="240"/>
+      <c r="B26" s="241"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="243"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="244"/>
+      <c r="G26" s="245"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="240"/>
+      <c r="B27" s="241"/>
+      <c r="C27" s="246"/>
+      <c r="D27" s="247"/>
+      <c r="E27" s="244"/>
+      <c r="F27" s="244"/>
+      <c r="G27" s="245"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1">
+      <c r="A28" s="248"/>
+      <c r="B28" s="249"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="251"/>
+      <c r="E28" s="252"/>
+      <c r="F28" s="252"/>
+      <c r="G28" s="253"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="183"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1">
+      <c r="A30" s="181" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="182"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
+      <c r="G30" s="182"/>
+    </row>
+    <row r="31" spans="1:7" ht="25" thickBot="1">
+      <c r="A31" s="254" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="255" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="256" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="257"/>
+      <c r="E31" s="256" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="258"/>
+      <c r="G31" s="259" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="183">
+        <v>1</v>
+      </c>
+      <c r="B32" s="182" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="260" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="260"/>
+      <c r="E32" s="260" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="260"/>
+      <c r="G32" s="261" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="183">
+        <v>2</v>
+      </c>
+      <c r="B33" s="182" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="262" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="262"/>
+      <c r="E33" s="262" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="262"/>
+      <c r="G33" s="261" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="183"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="263"/>
+      <c r="D34" s="263"/>
+      <c r="E34" s="263"/>
+      <c r="F34" s="263"/>
+      <c r="G34" s="182"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1">
+      <c r="A35" s="181" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="182"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="182"/>
+    </row>
+    <row r="36" spans="1:7" ht="25" thickBot="1">
+      <c r="A36" s="254" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="255" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="256" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="257"/>
+      <c r="E36" s="256" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="258"/>
+      <c r="G36" s="259" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/doc/backend/db/TRN-MiniBlog_DatabaseDesign_LeDong.xlsx
+++ b/doc/backend/db/TRN-MiniBlog_DatabaseDesign_LeDong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14080" tabRatio="818" activeTab="7"/>
+    <workbookView xWindow="5760" yWindow="1180" windowWidth="25600" windowHeight="14080" tabRatio="818" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -16,9 +16,10 @@
     <sheet name="ranking(deleted)" sheetId="20" state="hidden" r:id="rId7"/>
     <sheet name="Posts" sheetId="38" r:id="rId8"/>
     <sheet name="Comments" sheetId="39" r:id="rId9"/>
+    <sheet name="Token" sheetId="40" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="⑫画面" localSheetId="4">#REF!</definedName>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="169">
   <si>
     <t>No</t>
   </si>
@@ -386,9 +387,6 @@
   </si>
   <si>
     <t>version_id, rank_number, rank_type</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>Init version</t>
@@ -460,19 +458,7 @@
     <t>Lastname</t>
   </si>
   <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>Birthday</t>
-  </si>
-  <si>
-    <t>Role</t>
   </si>
   <si>
     <t>Mini Blog</t>
@@ -536,42 +522,9 @@
     <t>id_acc</t>
   </si>
   <si>
-    <t>acc_username</t>
-  </si>
-  <si>
-    <t>acc_password</t>
-  </si>
-  <si>
-    <t>acc_firstname</t>
-  </si>
-  <si>
-    <t>acc_lastname</t>
-  </si>
-  <si>
-    <t>acc_image</t>
-  </si>
-  <si>
-    <t>acc_gender</t>
-  </si>
-  <si>
-    <t>0:user, 1 admin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yes </t>
   </si>
   <si>
-    <t>acc_email</t>
-  </si>
-  <si>
-    <t>acc_birthday</t>
-  </si>
-  <si>
-    <t>acc_status</t>
-  </si>
-  <si>
-    <t>acc_role</t>
-  </si>
-  <si>
     <t>TIMESTAMP</t>
   </si>
   <si>
@@ -587,43 +540,70 @@
     <t>id_posts</t>
   </si>
   <si>
-    <t>posts_title</t>
-  </si>
-  <si>
-    <t>posts_description</t>
-  </si>
-  <si>
-    <t>posts_create_date</t>
-  </si>
-  <si>
-    <t>posts_modidied_date</t>
-  </si>
-  <si>
-    <t>posts_status</t>
-  </si>
-  <si>
     <t>VARCHAR(500)</t>
   </si>
   <si>
-    <t>id_comments</t>
-  </si>
-  <si>
-    <t>comments_title</t>
-  </si>
-  <si>
-    <t>comments_description</t>
-  </si>
-  <si>
-    <t>comments_create_date</t>
-  </si>
-  <si>
-    <t>comments_modified_date</t>
-  </si>
-  <si>
-    <t>comments_status</t>
-  </si>
-  <si>
     <t>fk_comments_account1_idx</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Modified Date</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>create_at</t>
+  </si>
+  <si>
+    <t>modified_at</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>titlte</t>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Access Token</t>
+  </si>
+  <si>
+    <t>Create date</t>
+  </si>
+  <si>
+    <t>Expired Date</t>
+  </si>
+  <si>
+    <t>Account ID</t>
+  </si>
+  <si>
+    <t>access_token</t>
+  </si>
+  <si>
+    <t>expired_at</t>
+  </si>
+  <si>
+    <t>fk_token_account1_idx</t>
   </si>
 </sst>
 </file>
@@ -870,7 +850,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -1767,8 +1747,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="447">
+  <cellStyleXfs count="449">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3107,8 +3167,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3469,6 +3535,183 @@
     <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3479,12 +3722,75 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3500,69 +3806,6 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3587,53 +3830,47 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3641,16 +3878,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3683,182 +3911,89 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="70" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="70" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="71" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="447">
+  <cellStyles count="449">
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
@@ -4298,6 +4433,8 @@
     <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ハイパーリンク 2" xfId="4"/>
@@ -5551,29 +5688,29 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="134"/>
-      <c r="R13" s="134"/>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="134"/>
-      <c r="V13" s="134"/>
-      <c r="W13" s="134"/>
-      <c r="X13" s="134"/>
-      <c r="Y13" s="134"/>
-      <c r="Z13" s="134"/>
-      <c r="AA13" s="134"/>
-      <c r="AB13" s="134"/>
-      <c r="AC13" s="134"/>
-      <c r="AD13" s="134"/>
-      <c r="AE13" s="134"/>
-      <c r="AF13" s="134"/>
-      <c r="AG13" s="134"/>
-      <c r="AH13" s="134"/>
-      <c r="AI13" s="134"/>
-      <c r="AJ13" s="134"/>
-      <c r="AK13" s="134"/>
+      <c r="O13" s="193"/>
+      <c r="P13" s="193"/>
+      <c r="Q13" s="193"/>
+      <c r="R13" s="193"/>
+      <c r="S13" s="193"/>
+      <c r="T13" s="193"/>
+      <c r="U13" s="193"/>
+      <c r="V13" s="193"/>
+      <c r="W13" s="193"/>
+      <c r="X13" s="193"/>
+      <c r="Y13" s="193"/>
+      <c r="Z13" s="193"/>
+      <c r="AA13" s="193"/>
+      <c r="AB13" s="193"/>
+      <c r="AC13" s="193"/>
+      <c r="AD13" s="193"/>
+      <c r="AE13" s="193"/>
+      <c r="AF13" s="193"/>
+      <c r="AG13" s="193"/>
+      <c r="AH13" s="193"/>
+      <c r="AI13" s="193"/>
+      <c r="AJ13" s="193"/>
+      <c r="AK13" s="193"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -5605,29 +5742,29 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="134"/>
-      <c r="P14" s="134"/>
-      <c r="Q14" s="134"/>
-      <c r="R14" s="134"/>
-      <c r="S14" s="134"/>
-      <c r="T14" s="134"/>
-      <c r="U14" s="134"/>
-      <c r="V14" s="134"/>
-      <c r="W14" s="134"/>
-      <c r="X14" s="134"/>
-      <c r="Y14" s="134"/>
-      <c r="Z14" s="134"/>
-      <c r="AA14" s="134"/>
-      <c r="AB14" s="134"/>
-      <c r="AC14" s="134"/>
-      <c r="AD14" s="134"/>
-      <c r="AE14" s="134"/>
-      <c r="AF14" s="134"/>
-      <c r="AG14" s="134"/>
-      <c r="AH14" s="134"/>
-      <c r="AI14" s="134"/>
-      <c r="AJ14" s="134"/>
-      <c r="AK14" s="134"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="193"/>
+      <c r="Q14" s="193"/>
+      <c r="R14" s="193"/>
+      <c r="S14" s="193"/>
+      <c r="T14" s="193"/>
+      <c r="U14" s="193"/>
+      <c r="V14" s="193"/>
+      <c r="W14" s="193"/>
+      <c r="X14" s="193"/>
+      <c r="Y14" s="193"/>
+      <c r="Z14" s="193"/>
+      <c r="AA14" s="193"/>
+      <c r="AB14" s="193"/>
+      <c r="AC14" s="193"/>
+      <c r="AD14" s="193"/>
+      <c r="AE14" s="193"/>
+      <c r="AF14" s="193"/>
+      <c r="AG14" s="193"/>
+      <c r="AH14" s="193"/>
+      <c r="AI14" s="193"/>
+      <c r="AJ14" s="193"/>
+      <c r="AK14" s="193"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
@@ -5655,43 +5792,43 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="135" t="s">
-        <v>109</v>
-      </c>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="135"/>
-      <c r="R15" s="135"/>
-      <c r="S15" s="135"/>
-      <c r="T15" s="135"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="135"/>
-      <c r="Y15" s="135"/>
-      <c r="Z15" s="135"/>
-      <c r="AA15" s="135"/>
-      <c r="AB15" s="135"/>
-      <c r="AC15" s="135"/>
-      <c r="AD15" s="135"/>
-      <c r="AE15" s="135"/>
-      <c r="AF15" s="135"/>
-      <c r="AG15" s="135"/>
-      <c r="AH15" s="135"/>
-      <c r="AI15" s="135"/>
-      <c r="AJ15" s="135"/>
-      <c r="AK15" s="135"/>
-      <c r="AL15" s="135"/>
-      <c r="AM15" s="135"/>
-      <c r="AN15" s="135"/>
-      <c r="AO15" s="135"/>
-      <c r="AP15" s="135"/>
-      <c r="AQ15" s="135"/>
-      <c r="AR15" s="135"/>
-      <c r="AS15" s="135"/>
+      <c r="K15" s="194" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="194"/>
+      <c r="O15" s="194"/>
+      <c r="P15" s="194"/>
+      <c r="Q15" s="194"/>
+      <c r="R15" s="194"/>
+      <c r="S15" s="194"/>
+      <c r="T15" s="194"/>
+      <c r="U15" s="194"/>
+      <c r="V15" s="194"/>
+      <c r="W15" s="194"/>
+      <c r="X15" s="194"/>
+      <c r="Y15" s="194"/>
+      <c r="Z15" s="194"/>
+      <c r="AA15" s="194"/>
+      <c r="AB15" s="194"/>
+      <c r="AC15" s="194"/>
+      <c r="AD15" s="194"/>
+      <c r="AE15" s="194"/>
+      <c r="AF15" s="194"/>
+      <c r="AG15" s="194"/>
+      <c r="AH15" s="194"/>
+      <c r="AI15" s="194"/>
+      <c r="AJ15" s="194"/>
+      <c r="AK15" s="194"/>
+      <c r="AL15" s="194"/>
+      <c r="AM15" s="194"/>
+      <c r="AN15" s="194"/>
+      <c r="AO15" s="194"/>
+      <c r="AP15" s="194"/>
+      <c r="AQ15" s="194"/>
+      <c r="AR15" s="194"/>
+      <c r="AS15" s="194"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -5711,41 +5848,41 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="135"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="135"/>
-      <c r="Y16" s="135"/>
-      <c r="Z16" s="135"/>
-      <c r="AA16" s="135"/>
-      <c r="AB16" s="135"/>
-      <c r="AC16" s="135"/>
-      <c r="AD16" s="135"/>
-      <c r="AE16" s="135"/>
-      <c r="AF16" s="135"/>
-      <c r="AG16" s="135"/>
-      <c r="AH16" s="135"/>
-      <c r="AI16" s="135"/>
-      <c r="AJ16" s="135"/>
-      <c r="AK16" s="135"/>
-      <c r="AL16" s="135"/>
-      <c r="AM16" s="135"/>
-      <c r="AN16" s="135"/>
-      <c r="AO16" s="135"/>
-      <c r="AP16" s="135"/>
-      <c r="AQ16" s="135"/>
-      <c r="AR16" s="135"/>
-      <c r="AS16" s="135"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="194"/>
+      <c r="Q16" s="194"/>
+      <c r="R16" s="194"/>
+      <c r="S16" s="194"/>
+      <c r="T16" s="194"/>
+      <c r="U16" s="194"/>
+      <c r="V16" s="194"/>
+      <c r="W16" s="194"/>
+      <c r="X16" s="194"/>
+      <c r="Y16" s="194"/>
+      <c r="Z16" s="194"/>
+      <c r="AA16" s="194"/>
+      <c r="AB16" s="194"/>
+      <c r="AC16" s="194"/>
+      <c r="AD16" s="194"/>
+      <c r="AE16" s="194"/>
+      <c r="AF16" s="194"/>
+      <c r="AG16" s="194"/>
+      <c r="AH16" s="194"/>
+      <c r="AI16" s="194"/>
+      <c r="AJ16" s="194"/>
+      <c r="AK16" s="194"/>
+      <c r="AL16" s="194"/>
+      <c r="AM16" s="194"/>
+      <c r="AN16" s="194"/>
+      <c r="AO16" s="194"/>
+      <c r="AP16" s="194"/>
+      <c r="AQ16" s="194"/>
+      <c r="AR16" s="194"/>
+      <c r="AS16" s="194"/>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
@@ -6334,14 +6471,14 @@
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="7"/>
-      <c r="AN27" s="136">
+      <c r="AN27" s="195">
         <v>41922</v>
       </c>
-      <c r="AO27" s="136"/>
-      <c r="AP27" s="136"/>
-      <c r="AQ27" s="136"/>
-      <c r="AR27" s="136"/>
-      <c r="AS27" s="136"/>
+      <c r="AO27" s="195"/>
+      <c r="AP27" s="195"/>
+      <c r="AQ27" s="195"/>
+      <c r="AR27" s="195"/>
+      <c r="AS27" s="195"/>
       <c r="AT27" s="12"/>
       <c r="AU27" s="12"/>
       <c r="AV27" s="12"/>
@@ -6800,6 +6937,475 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1">
+      <c r="A1" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="142"/>
+      <c r="B2" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="260" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="261"/>
+      <c r="E2" s="144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="260" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="262"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="142"/>
+      <c r="B3" s="145" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="247"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="146" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="263" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="249"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="142"/>
+      <c r="B4" s="145" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="247" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="248"/>
+      <c r="E4" s="146" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="247"/>
+      <c r="G4" s="249"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="142"/>
+      <c r="B5" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="247" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="248"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="249"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="142"/>
+      <c r="B6" s="145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="247" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="248"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="247"/>
+      <c r="G6" s="249"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="142"/>
+      <c r="B7" s="250" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="251"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="251"/>
+      <c r="G7" s="252"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="142"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="254"/>
+      <c r="D8" s="254"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="255"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="142"/>
+      <c r="B9" s="256"/>
+      <c r="C9" s="254"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="255"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1">
+      <c r="A10" s="142"/>
+      <c r="B10" s="257"/>
+      <c r="C10" s="258"/>
+      <c r="D10" s="258"/>
+      <c r="E10" s="258"/>
+      <c r="F10" s="258"/>
+      <c r="G10" s="259"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="142"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1">
+      <c r="A12" s="140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+    </row>
+    <row r="13" spans="1:7" ht="24">
+      <c r="A13" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="149" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="149" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="149" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="151" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="152">
+        <v>1</v>
+      </c>
+      <c r="B14" s="153" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="154" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="155" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="156" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="157"/>
+      <c r="G14" s="158"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="159">
+        <f>A14+1</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="153" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="155" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="155" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="156" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="157"/>
+      <c r="G15" s="160"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="159">
+        <f t="shared" ref="A16:A17" si="0">A15+1</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="155" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="155" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="156" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="157"/>
+      <c r="G16" s="161"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="159">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="155" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="155" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="156" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="157"/>
+      <c r="G17" s="161"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1">
+      <c r="A18" s="165"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="170"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="142"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1">
+      <c r="A20" s="140" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+    </row>
+    <row r="21" spans="1:7" ht="24">
+      <c r="A21" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="172" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="240"/>
+      <c r="E21" s="172" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="172" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="173" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="174">
+        <v>1</v>
+      </c>
+      <c r="B22" s="175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="241" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="242"/>
+      <c r="E22" s="176" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="176"/>
+      <c r="G22" s="177"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1">
+      <c r="A23" s="184">
+        <v>2</v>
+      </c>
+      <c r="B23" s="185" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="245"/>
+      <c r="D23" s="246"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="187"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="142"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1">
+      <c r="A25" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+    </row>
+    <row r="26" spans="1:7" ht="25" thickBot="1">
+      <c r="A26" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="189" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="236" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="237"/>
+      <c r="E26" s="236" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="238"/>
+      <c r="G26" s="190" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="142">
+        <v>1</v>
+      </c>
+      <c r="B27" s="141" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="234" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="234"/>
+      <c r="E27" s="234" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="234"/>
+      <c r="G27" s="191" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="142"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="192"/>
+      <c r="D28" s="192"/>
+      <c r="E28" s="192"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="141"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1">
+      <c r="A29" s="140" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+    </row>
+    <row r="30" spans="1:7" ht="25" thickBot="1">
+      <c r="A30" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="189" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="236" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="237"/>
+      <c r="E30" s="236" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="238"/>
+      <c r="G30" s="190" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F34"/>
@@ -6844,11 +7450,11 @@
         <v>41922</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="94"/>
       <c r="E3" s="95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="96"/>
     </row>
@@ -7100,11 +7706,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" thickBot="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
     </row>
     <row r="2" spans="1:3" ht="12" thickBot="1">
       <c r="A2" s="118" t="s">
@@ -7122,10 +7728,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="122" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="128" t="s">
         <v>102</v>
-      </c>
-      <c r="C3" s="128" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7355,10 +7961,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -7388,103 +7994,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="159" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="164"/>
+      <c r="C2" s="197" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="198"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="159" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="160"/>
+      <c r="F2" s="197" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="201"/>
     </row>
     <row r="3" spans="1:8" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="165"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="200"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="161" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="162"/>
+      <c r="F3" s="202" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="203"/>
     </row>
     <row r="4" spans="1:8" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="163" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="165"/>
+      <c r="C4" s="199" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="200"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="163"/>
-      <c r="G4" s="162"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="203"/>
     </row>
     <row r="5" spans="1:8" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="163" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="165"/>
+      <c r="C5" s="199" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="200"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="162"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="203"/>
     </row>
     <row r="6" spans="1:8" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="163" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="165"/>
+      <c r="C6" s="199" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="200"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="162"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="203"/>
     </row>
     <row r="7" spans="1:8" ht="13">
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="149"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="210"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="150"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="152"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="213"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="153"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="152"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="212"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="213"/>
     </row>
     <row r="10" spans="1:8" ht="12" thickBot="1">
-      <c r="B10" s="154"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="156"/>
+      <c r="B10" s="215"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="217"/>
     </row>
     <row r="12" spans="1:8" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -7492,397 +8098,373 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="265" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="265" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="265" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="265" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="69">
+      <c r="A14" s="267">
         <v>1</v>
       </c>
-      <c r="B14" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="65" t="s">
+      <c r="B14" s="268" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="269" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="270" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="271" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="106" t="s">
+      <c r="F14" s="272"/>
+      <c r="G14" s="273" t="s">
         <v>50</v>
       </c>
       <c r="H14" s="87"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="59">
+      <c r="A15" s="274">
         <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="268" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="270" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="270" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="271" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="272"/>
+      <c r="G15" s="275" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="107" t="s">
-        <v>105</v>
-      </c>
       <c r="H15" s="87"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="59">
-        <f t="shared" ref="A16:A24" si="0">A15+1</f>
+      <c r="A16" s="274">
+        <f t="shared" ref="A16:A18" si="0">A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="66" t="s">
+      <c r="B16" s="268" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="270" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="270" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="271" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="117"/>
+      <c r="F16" s="272"/>
+      <c r="G16" s="276"/>
       <c r="H16" s="87"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="59">
+      <c r="A17" s="274">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" s="66" t="s">
+      <c r="B17" s="268" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="270" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="270" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="271" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="117"/>
+      <c r="F17" s="272"/>
+      <c r="G17" s="276"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="59">
+      <c r="A18" s="274">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="268" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="270" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="277" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="271" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="272"/>
+      <c r="G18" s="273"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="274">
+        <v>6</v>
+      </c>
+      <c r="B19" s="268" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C19" s="270" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="270" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="271" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="272"/>
+      <c r="G19" s="273"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="274">
+        <v>7</v>
+      </c>
+      <c r="B20" s="268" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="270" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="270" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="271" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="272"/>
+      <c r="G20" s="273"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="274">
+        <v>8</v>
+      </c>
+      <c r="B21" s="268" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="270" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="270" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="271" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="272"/>
+      <c r="G21" s="273"/>
+    </row>
+    <row r="22" spans="1:7" s="284" customFormat="1" ht="12" thickBot="1">
+      <c r="A22" s="278">
+        <v>9</v>
+      </c>
+      <c r="B22" s="279" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="280" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="281" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="282"/>
+      <c r="G22" s="283" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="204" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="205"/>
+      <c r="E25" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="13">
+      <c r="A26" s="14">
+        <v>1</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="218" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="219"/>
+      <c r="E26" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" ht="13">
+      <c r="A27" s="57">
+        <v>2</v>
+      </c>
+      <c r="B27" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="127" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="66" t="s">
+      <c r="C27" s="285" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="286"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="53"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="57">
         <v>3</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="106"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="59">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="127" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="106"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="59">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="65" t="s">
+      <c r="B28" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="223" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="224"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+    </row>
+    <row r="29" spans="1:7" ht="13" customHeight="1" thickBot="1">
+      <c r="A29" s="56">
+        <v>4</v>
+      </c>
+      <c r="B29" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="127" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="67"/>
-      <c r="G20" s="106"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="59">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B21" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="65" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="106"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="59">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="106"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="59">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="106" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="12" thickBot="1">
-      <c r="A24" s="70">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B24" s="129" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="130" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="130" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="131" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="133" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="132" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="12" thickBot="1">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="29" t="s">
+      <c r="C29" s="221" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="222"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" spans="1:7" ht="13" customHeight="1"/>
+    <row r="31" spans="1:7" ht="12" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14" thickBot="1">
+      <c r="A32" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="145" t="s">
+      <c r="B32" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="146"/>
-      <c r="E27" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="13">
-      <c r="A28" s="14">
-        <v>1</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="157" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="158"/>
-      <c r="E28" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:7" ht="13" customHeight="1">
-      <c r="A29" s="57">
-        <v>2</v>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53"/>
-    </row>
-    <row r="30" spans="1:7" ht="13" customHeight="1" thickBot="1">
-      <c r="A30" s="56">
-        <v>3</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="32" spans="1:7" ht="12" thickBot="1">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="14" thickBot="1">
-      <c r="A33" s="36" t="s">
+      <c r="D32" s="207"/>
+      <c r="E32" s="206" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="220"/>
+      <c r="G32" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12" thickBot="1">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14" thickBot="1">
+      <c r="A35" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B35" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="138" t="s">
+      <c r="C35" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="139"/>
-      <c r="E33" s="138" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="140"/>
-      <c r="G33" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="12" thickBot="1">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14" thickBot="1">
-      <c r="A36" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="138" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="139"/>
-      <c r="E36" s="138" t="s">
+      <c r="D35" s="207"/>
+      <c r="E35" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="140"/>
-      <c r="G36" s="38" t="s">
+      <c r="F35" s="220"/>
+      <c r="G35" s="38" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E33:F33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7930,103 +8512,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="164"/>
+      <c r="D2" s="198"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="159" t="s">
+      <c r="F2" s="197" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="160"/>
+      <c r="G2" s="201"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="165"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="200"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="163" t="s">
+      <c r="F3" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="162"/>
+      <c r="G3" s="203"/>
     </row>
     <row r="4" spans="1:11" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="165"/>
+      <c r="D4" s="200"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="163"/>
-      <c r="G4" s="162"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="203"/>
     </row>
     <row r="5" spans="1:11" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="163" t="s">
+      <c r="C5" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="200"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="162"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="203"/>
     </row>
     <row r="6" spans="1:11" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="199" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="165"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="162"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="203"/>
     </row>
     <row r="7" spans="1:11" ht="13">
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="149"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="210"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="150"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="152"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="213"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="153"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="152"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="212"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="213"/>
     </row>
     <row r="10" spans="1:11" ht="12" thickBot="1">
-      <c r="B10" s="154"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="156"/>
+      <c r="B10" s="215"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="217"/>
     </row>
     <row r="12" spans="1:11" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -8248,10 +8830,10 @@
       <c r="B24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="145" t="s">
+      <c r="C24" s="204" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="146"/>
+      <c r="D24" s="205"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -8269,10 +8851,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="157" t="s">
+      <c r="C25" s="218" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="158"/>
+      <c r="D25" s="219"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -8286,10 +8868,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="168" t="s">
+      <c r="C26" s="227" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="169"/>
+      <c r="D26" s="228"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58" t="s">
         <v>3</v>
@@ -8308,14 +8890,14 @@
       <c r="B29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="138" t="s">
+      <c r="C29" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="139"/>
-      <c r="E29" s="138" t="s">
+      <c r="D29" s="207"/>
+      <c r="E29" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="140"/>
+      <c r="F29" s="220"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -8332,14 +8914,14 @@
       <c r="B32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="138" t="s">
+      <c r="C32" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="139"/>
-      <c r="E32" s="138" t="s">
+      <c r="D32" s="207"/>
+      <c r="E32" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="140"/>
+      <c r="F32" s="220"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
@@ -8349,20 +8931,29 @@
         <v>1</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="166" t="s">
+      <c r="C33" s="225" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="167"/>
-      <c r="E33" s="168" t="s">
+      <c r="D33" s="226"/>
+      <c r="E33" s="227" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="169"/>
+      <c r="F33" s="228"/>
       <c r="G33" s="28" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -8375,15 +8966,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8431,105 +9013,105 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="164"/>
+      <c r="D2" s="198"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="159" t="s">
+      <c r="F2" s="197" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="160"/>
+      <c r="G2" s="201"/>
     </row>
     <row r="3" spans="1:7" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="165"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="200"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="163" t="s">
+      <c r="F3" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="162"/>
+      <c r="G3" s="203"/>
     </row>
     <row r="4" spans="1:7" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="165"/>
+      <c r="D4" s="200"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="163"/>
-      <c r="G4" s="162"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="203"/>
     </row>
     <row r="5" spans="1:7" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="163" t="s">
+      <c r="C5" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="200"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="162"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="203"/>
     </row>
     <row r="6" spans="1:7" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="165"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="162"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="203"/>
     </row>
     <row r="7" spans="1:7" ht="13">
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="149"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="210"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="211" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="152"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="213"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="153"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="152"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="212"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="213"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1">
-      <c r="B10" s="154"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="156"/>
+      <c r="B10" s="215"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="217"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -8634,10 +9216,10 @@
       <c r="B19" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="145" t="s">
+      <c r="C19" s="204" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="146"/>
+      <c r="D19" s="205"/>
       <c r="E19" s="34" t="s">
         <v>33</v>
       </c>
@@ -8655,10 +9237,10 @@
       <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="157" t="s">
+      <c r="C20" s="218" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="158"/>
+      <c r="D20" s="219"/>
       <c r="E20" s="46" t="s">
         <v>3</v>
       </c>
@@ -8672,10 +9254,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="166" t="s">
+      <c r="C21" s="225" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="167"/>
+      <c r="D21" s="226"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45" t="s">
         <v>3</v>
@@ -8694,14 +9276,14 @@
       <c r="B24" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="138" t="s">
+      <c r="C24" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="139"/>
-      <c r="E24" s="138" t="s">
+      <c r="D24" s="207"/>
+      <c r="E24" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="140"/>
+      <c r="F24" s="220"/>
       <c r="G24" s="38" t="s">
         <v>38</v>
       </c>
@@ -8718,14 +9300,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="138" t="s">
+      <c r="C27" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="139"/>
-      <c r="E27" s="138" t="s">
+      <c r="D27" s="207"/>
+      <c r="E27" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="140"/>
+      <c r="F27" s="220"/>
       <c r="G27" s="38" t="s">
         <v>39</v>
       </c>
@@ -8735,14 +9317,23 @@
         <v>1</v>
       </c>
       <c r="B28" s="26"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="169"/>
+      <c r="C28" s="225"/>
+      <c r="D28" s="226"/>
+      <c r="E28" s="227"/>
+      <c r="F28" s="228"/>
       <c r="G28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -8755,15 +9346,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8811,103 +9393,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="164"/>
+      <c r="D2" s="198"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="172" t="s">
+      <c r="F2" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="173"/>
+      <c r="G2" s="232"/>
     </row>
     <row r="3" spans="1:14" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="165"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="200"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="161" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="162"/>
+      <c r="F3" s="202" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="203"/>
     </row>
     <row r="4" spans="1:14" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="165"/>
+      <c r="D4" s="200"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="163"/>
-      <c r="G4" s="162"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="203"/>
     </row>
     <row r="5" spans="1:14" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="163" t="s">
+      <c r="C5" s="199" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="165"/>
+      <c r="D5" s="200"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="162"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="203"/>
     </row>
     <row r="6" spans="1:14" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="165"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="162"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="203"/>
     </row>
     <row r="7" spans="1:14" ht="13">
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="149"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="210"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="150"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="152"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="213"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="153"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="152"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="212"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="213"/>
     </row>
     <row r="10" spans="1:14" ht="12" thickBot="1">
-      <c r="B10" s="154"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="156"/>
+      <c r="B10" s="215"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="217"/>
     </row>
     <row r="11" spans="1:14">
       <c r="H11" s="87"/>
@@ -9123,10 +9705,10 @@
       <c r="B21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="145" t="s">
+      <c r="C21" s="204" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="146"/>
+      <c r="D21" s="205"/>
       <c r="E21" s="34" t="s">
         <v>33</v>
       </c>
@@ -9150,10 +9732,10 @@
       <c r="B22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="157" t="s">
+      <c r="C22" s="218" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="158"/>
+      <c r="D22" s="219"/>
       <c r="E22" s="46" t="s">
         <v>3</v>
       </c>
@@ -9173,10 +9755,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="51"/>
-      <c r="C23" s="143" t="s">
+      <c r="C23" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="144"/>
+      <c r="D23" s="224"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52" t="s">
         <v>3</v>
@@ -9194,10 +9776,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="166" t="s">
+      <c r="C24" s="225" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="167"/>
+      <c r="D24" s="226"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45" t="s">
         <v>3</v>
@@ -9236,14 +9818,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="138" t="s">
+      <c r="C27" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="139"/>
-      <c r="E27" s="138" t="s">
+      <c r="D27" s="207"/>
+      <c r="E27" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="140"/>
+      <c r="F27" s="220"/>
       <c r="G27" s="38" t="s">
         <v>38</v>
       </c>
@@ -9280,14 +9862,14 @@
       <c r="B30" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="138" t="s">
+      <c r="C30" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="139"/>
-      <c r="E30" s="138" t="s">
+      <c r="D30" s="207"/>
+      <c r="E30" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="140"/>
+      <c r="F30" s="220"/>
       <c r="G30" s="38" t="s">
         <v>39</v>
       </c>
@@ -9303,14 +9885,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="157" t="s">
+      <c r="C31" s="218" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="158"/>
-      <c r="E31" s="143" t="s">
+      <c r="D31" s="219"/>
+      <c r="E31" s="223" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="144"/>
+      <c r="F31" s="224"/>
       <c r="G31" s="53" t="s">
         <v>76</v>
       </c>
@@ -9326,14 +9908,14 @@
         <v>2</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="C32" s="170" t="s">
+      <c r="C32" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="171"/>
-      <c r="E32" s="168" t="s">
+      <c r="D32" s="230"/>
+      <c r="E32" s="227" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="169"/>
+      <c r="F32" s="228"/>
       <c r="G32" s="55" t="s">
         <v>52</v>
       </c>
@@ -9386,14 +9968,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C31:D31"/>
@@ -9410,6 +9984,14 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9430,8 +10012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9461,111 +10043,111 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="159" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="164"/>
+      <c r="C2" s="197" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="198"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="159" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="160"/>
+      <c r="F2" s="197" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="201"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="13"/>
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="165"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="200"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="161" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="162"/>
+      <c r="F3" s="202" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="203"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="13"/>
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="163" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="165"/>
+      <c r="C4" s="199" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="200"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="163"/>
-      <c r="G4" s="162"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="203"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="13"/>
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="163" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="165"/>
+      <c r="C5" s="199" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="200"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="162"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="203"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="13"/>
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="163" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="165"/>
+      <c r="C6" s="199" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="200"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="162"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="203"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="13"/>
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="149"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="210"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="13"/>
-      <c r="B8" s="150"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="152"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="213"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="13"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="152"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="212"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="213"/>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1">
       <c r="A10" s="13"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="156"/>
+      <c r="B10" s="215"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="217"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1">
       <c r="A15" s="1" t="s">
@@ -9606,10 +10188,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="D17" s="65" t="s">
         <v>53</v>
@@ -9628,13 +10210,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="E18" s="66" t="s">
         <v>3</v>
@@ -9648,13 +10230,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="E19" s="66" t="s">
         <v>3</v>
@@ -9671,10 +10253,10 @@
         <v>41</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E20" s="66" t="s">
         <v>3</v>
@@ -9688,13 +10270,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D21" s="127" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E21" s="66" t="s">
         <v>3</v>
@@ -9711,19 +10293,19 @@
         <v>40</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="D22" s="127" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="174" t="s">
+      <c r="F22" s="134" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="106" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1" thickBot="1">
@@ -9731,10 +10313,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="129" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C23" s="130" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D23" s="130" t="s">
         <v>53</v>
@@ -9772,10 +10354,10 @@
       <c r="B26" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="145" t="s">
+      <c r="C26" s="204" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="146"/>
+      <c r="D26" s="205"/>
       <c r="E26" s="34" t="s">
         <v>33</v>
       </c>
@@ -9793,10 +10375,10 @@
       <c r="B27" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="157" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="158"/>
+      <c r="C27" s="218" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="219"/>
       <c r="E27" s="46" t="s">
         <v>3</v>
       </c>
@@ -9810,28 +10392,40 @@
         <v>2</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="143"/>
-      <c r="D28" s="144"/>
+        <v>157</v>
+      </c>
+      <c r="C28" s="223" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="224"/>
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
       <c r="G28" s="53"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="57"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="176"/>
+      <c r="A29" s="57">
+        <v>3</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="135" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="136"/>
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
       <c r="G29" s="53"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="142"/>
+      <c r="A30" s="56">
+        <v>4</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="221"/>
+      <c r="D30" s="222"/>
       <c r="E30" s="58"/>
       <c r="F30" s="58"/>
       <c r="G30" s="55"/>
@@ -9863,35 +10457,35 @@
       <c r="B33" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="138" t="s">
+      <c r="C33" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="139"/>
-      <c r="E33" s="138" t="s">
+      <c r="D33" s="207"/>
+      <c r="E33" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="140"/>
+      <c r="F33" s="220"/>
       <c r="G33" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1">
-      <c r="A34" s="177">
+      <c r="A34" s="137">
         <v>1</v>
       </c>
-      <c r="B34" s="178" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="179" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="179"/>
-      <c r="E34" s="179" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="179"/>
-      <c r="G34" s="180" t="s">
-        <v>145</v>
+      <c r="B34" s="138" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="233" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="233"/>
+      <c r="E34" s="233" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="233"/>
+      <c r="G34" s="139" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1">
@@ -9912,14 +10506,14 @@
       <c r="B36" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="138" t="s">
+      <c r="C36" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="139"/>
-      <c r="E36" s="138" t="s">
+      <c r="D36" s="207"/>
+      <c r="E36" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="140"/>
+      <c r="F36" s="220"/>
       <c r="G36" s="38" t="s">
         <v>39</v>
       </c>
@@ -9935,6 +10529,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="C36:D36"/>
@@ -9945,18 +10551,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -9970,10 +10564,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection sqref="A1:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9985,556 +10579,592 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="183"/>
-      <c r="B2" s="184" t="s">
+      <c r="A2" s="142"/>
+      <c r="B2" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="185" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="187" t="s">
+      <c r="C2" s="260" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="261"/>
+      <c r="E2" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="185" t="s">
+      <c r="F2" s="260" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="262"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="142"/>
+      <c r="B3" s="145" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="247"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="146" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="263" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="249"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="142"/>
+      <c r="B4" s="145" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="247" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="188"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="183"/>
-      <c r="B3" s="189" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="190"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="192" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="193" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="194"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="183"/>
-      <c r="B4" s="189" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="190" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="191"/>
-      <c r="E4" s="192" t="s">
+      <c r="D4" s="248"/>
+      <c r="E4" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="190"/>
-      <c r="G4" s="194"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="249"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="183"/>
-      <c r="B5" s="189" t="s">
+      <c r="A5" s="142"/>
+      <c r="B5" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="190" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="191"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="194"/>
+      <c r="C5" s="247" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="248"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="249"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="183"/>
-      <c r="B6" s="189" t="s">
+      <c r="A6" s="142"/>
+      <c r="B6" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="190" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="191"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="194"/>
+      <c r="C6" s="247" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="248"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="247"/>
+      <c r="G6" s="249"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="183"/>
-      <c r="B7" s="196" t="s">
+      <c r="A7" s="142"/>
+      <c r="B7" s="250" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="198"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="251"/>
+      <c r="G7" s="252"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="183"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="201"/>
+      <c r="A8" s="142"/>
+      <c r="B8" s="253"/>
+      <c r="C8" s="254"/>
+      <c r="D8" s="254"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="255"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="183"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="201"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="256"/>
+      <c r="C9" s="254"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="255"/>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1">
-      <c r="A10" s="183"/>
-      <c r="B10" s="203"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="205"/>
+      <c r="A10" s="142"/>
+      <c r="B10" s="257"/>
+      <c r="C10" s="258"/>
+      <c r="D10" s="258"/>
+      <c r="E10" s="258"/>
+      <c r="F10" s="258"/>
+      <c r="G10" s="259"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="183"/>
-      <c r="B11" s="182"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
+      <c r="A11" s="142"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="206" t="s">
+      <c r="A13" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="207" t="s">
+      <c r="C13" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="207" t="s">
+      <c r="D13" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="208" t="s">
+      <c r="E13" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="207" t="s">
+      <c r="F13" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="209" t="s">
+      <c r="G13" s="151" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="210">
+      <c r="A14" s="152">
         <v>1</v>
       </c>
-      <c r="B14" s="211" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="212" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="213" t="s">
+      <c r="B14" s="153" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="154" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="214" t="s">
+      <c r="E14" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="215"/>
-      <c r="G14" s="216" t="s">
+      <c r="F14" s="157"/>
+      <c r="G14" s="158" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="217">
+      <c r="A15" s="159">
         <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="211" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="213" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="213" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="214" t="s">
+      <c r="B15" s="153" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="155" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="155" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="215"/>
-      <c r="G15" s="218"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="160"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="217">
+      <c r="A16" s="159">
         <f t="shared" ref="A16:A21" si="0">A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="211" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="213" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" s="213" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" s="214" t="s">
+      <c r="B16" s="153" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="155" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="155" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="215"/>
-      <c r="G16" s="219"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="161"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="217">
+      <c r="A17" s="159">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="211" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="213" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="213" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="214"/>
-      <c r="F17" s="215"/>
-      <c r="G17" s="219"/>
+      <c r="B17" s="153" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="155" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="155" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="156" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="157"/>
+      <c r="G17" s="161"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="217">
+      <c r="A18" s="159">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="211" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="213" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="220" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="214"/>
-      <c r="F18" s="215"/>
-      <c r="G18" s="216"/>
+      <c r="B18" s="153" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="155" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="162" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="156" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="157"/>
+      <c r="G18" s="158"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="217">
+      <c r="A19" s="159">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="211" t="s">
+      <c r="B19" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="221" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="213" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="214"/>
-      <c r="F19" s="222" t="s">
+      <c r="C19" s="163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="155" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="156" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="216" t="s">
-        <v>142</v>
+      <c r="G19" s="158" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="217">
+      <c r="A20" s="159">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="211" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="213" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" s="220" t="s">
+      <c r="B20" s="153" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="155" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="214"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="216"/>
+      <c r="E20" s="156" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="157"/>
+      <c r="G20" s="158"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1">
-      <c r="A21" s="223">
+      <c r="A21" s="165">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="224" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="225" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="225" t="s">
+      <c r="B21" s="166" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="226"/>
-      <c r="F21" s="227"/>
-      <c r="G21" s="228"/>
+      <c r="E21" s="168" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="169"/>
+      <c r="G21" s="170"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="183"/>
-      <c r="B22" s="182"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
+      <c r="A22" s="142"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1">
-      <c r="A23" s="181" t="s">
+      <c r="A23" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="182"/>
-      <c r="C23" s="182"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="182"/>
-      <c r="G23" s="182"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
     </row>
     <row r="24" spans="1:7" ht="24">
-      <c r="A24" s="229" t="s">
+      <c r="A24" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="230" t="s">
+      <c r="B24" s="172" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="231" t="s">
+      <c r="C24" s="239" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="232"/>
-      <c r="E24" s="230" t="s">
+      <c r="D24" s="240"/>
+      <c r="E24" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="230" t="s">
+      <c r="F24" s="172" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="233" t="s">
+      <c r="G24" s="173" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="234">
+      <c r="A25" s="174">
         <v>1</v>
       </c>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="236" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="237"/>
-      <c r="E25" s="238" t="s">
+      <c r="C25" s="241" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="242"/>
+      <c r="E25" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="238" t="s">
+      <c r="F25" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="239"/>
+      <c r="G25" s="177"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="240"/>
-      <c r="B26" s="241"/>
-      <c r="C26" s="242"/>
-      <c r="D26" s="243"/>
-      <c r="E26" s="244"/>
-      <c r="F26" s="244"/>
-      <c r="G26" s="245"/>
+      <c r="A26" s="178">
+        <v>2</v>
+      </c>
+      <c r="B26" s="179" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="243"/>
+      <c r="D26" s="244"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="181"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="240"/>
-      <c r="B27" s="241"/>
-      <c r="C27" s="246"/>
-      <c r="D27" s="247"/>
-      <c r="E27" s="244"/>
-      <c r="F27" s="244"/>
-      <c r="G27" s="245"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1">
-      <c r="A28" s="248"/>
-      <c r="B28" s="249"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="251"/>
-      <c r="E28" s="252"/>
-      <c r="F28" s="252"/>
-      <c r="G28" s="253"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="183"/>
-      <c r="B29" s="182"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1">
-      <c r="A30" s="181" t="s">
+      <c r="A27" s="178">
+        <v>3</v>
+      </c>
+      <c r="B27" s="179" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="182"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="181"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="178">
+        <v>4</v>
+      </c>
+      <c r="B28" s="179" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="182"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="181"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1">
+      <c r="A29" s="184">
+        <v>5</v>
+      </c>
+      <c r="B29" s="185" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="245"/>
+      <c r="D29" s="246"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="187"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="142"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1">
+      <c r="A31" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="182"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-    </row>
-    <row r="31" spans="1:7" ht="25" thickBot="1">
-      <c r="A31" s="254" t="s">
+      <c r="B31" s="141"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+    </row>
+    <row r="32" spans="1:7" ht="25" thickBot="1">
+      <c r="A32" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="255" t="s">
+      <c r="B32" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="256" t="s">
+      <c r="C32" s="236" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="257"/>
-      <c r="E31" s="256" t="s">
+      <c r="D32" s="237"/>
+      <c r="E32" s="236" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="258"/>
-      <c r="G31" s="259" t="s">
+      <c r="F32" s="238"/>
+      <c r="G32" s="190" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="183">
+    <row r="33" spans="1:7">
+      <c r="A33" s="142">
         <v>1</v>
       </c>
-      <c r="B32" s="182" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="260" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="260"/>
-      <c r="E32" s="260" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="260"/>
-      <c r="G32" s="261" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="183">
+      <c r="B33" s="141" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="234"/>
+      <c r="E33" s="234" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="234"/>
+      <c r="G33" s="191" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="142">
         <v>2</v>
       </c>
-      <c r="B33" s="182" t="s">
-        <v>175</v>
-      </c>
-      <c r="C33" s="262" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="262"/>
-      <c r="E33" s="262" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="262"/>
-      <c r="G33" s="261" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="183"/>
-      <c r="B34" s="182"/>
-      <c r="C34" s="263"/>
-      <c r="D34" s="263"/>
-      <c r="E34" s="263"/>
-      <c r="F34" s="263"/>
-      <c r="G34" s="182"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1">
-      <c r="A35" s="181" t="s">
+      <c r="B34" s="141" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="235" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="235"/>
+      <c r="E34" s="235" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="235"/>
+      <c r="G34" s="191" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="142"/>
+      <c r="B35" s="141"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="192"/>
+      <c r="E35" s="192"/>
+      <c r="F35" s="192"/>
+      <c r="G35" s="141"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1">
+      <c r="A36" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="182"/>
-      <c r="C35" s="182"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="182"/>
-      <c r="F35" s="182"/>
-      <c r="G35" s="182"/>
-    </row>
-    <row r="36" spans="1:7" ht="25" thickBot="1">
-      <c r="A36" s="254" t="s">
+      <c r="B36" s="141"/>
+      <c r="C36" s="141"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+    </row>
+    <row r="37" spans="1:7" ht="25" thickBot="1">
+      <c r="A37" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="255" t="s">
+      <c r="B37" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="256" t="s">
+      <c r="C37" s="236" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="257"/>
-      <c r="E36" s="256" t="s">
+      <c r="D37" s="237"/>
+      <c r="E37" s="236" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="258"/>
-      <c r="G36" s="259" t="s">
+      <c r="F37" s="238"/>
+      <c r="G37" s="190" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
